--- a/国内外大学eecs专业课程表&培养路线/路径.xlsx
+++ b/国内外大学eecs专业课程表&培养路线/路径.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91B59CD-FC23-4FC7-92E1-86A69CAA41DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209C159F-5998-47EF-8575-2AB4299D146E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="学校" sheetId="1" r:id="rId1"/>
+    <sheet name="课表矩阵" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -613,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -732,7 +732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -769,6 +769,17 @@
       </c>
       <c r="G8" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -783,29 +794,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD8B352-1AD8-49A3-BDC1-81BE3CAB5010}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="123.5" customWidth="1"/>
+    <col min="2" max="2" width="110.125" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-    </row>
+    <row r="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/国内外大学eecs专业课程表&培养路线/路径.xlsx
+++ b/国内外大学eecs专业课程表&培养路线/路径.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209C159F-5998-47EF-8575-2AB4299D146E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F18DCBA-1B50-4DD7-A669-1CFDEF2095F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学校" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,16 +224,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>freshman_roadmaps.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6-2。电气工程与计算机科学(Electrical Engineering and Computer Science)
 6-3。计算机科学与工程(Computer Science and Engineering)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>berkeley</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -249,12 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-BS
-https://hkn.eecs.berkeley.edu/courseguides?_ga=2.78220765.810433577.1539182449-851673264.1539181257</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stanford</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,7 +251,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>161  UGHB_1819_PDFwCover.pdf</t>
+    <t>https://www.ri.cmu.edu/education/academic-programs/undergraduate-options/curriculum/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robotics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://csd.cs.cmu.edu/academic/undergraduate/bachelors-curriculum-admitted-2018
+https://csd.cs.cmu.edu/sample-undergraduate-course-sequence
+https://csd.cs.cmu.edu/academics/undergraduate/additional_major_curriculum-entry_2018
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>College of Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electrical &amp; Computer Engineering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ece.cmu.edu/academics/bs-in-ece/academic-guide.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>With the introduction of its innovative broad and flexible curriculum in 1991,
+ the ECE Department revitalized professional problem solving and design in 
+their proper role in the engineering curriculum. The goal of ECE's curriculum is to create a flexible undergraduate educational experience, comprising: mathematics, science, computer science and statistics; general education (humanities, social sciences and fine arts); written and oral communication; electrical and computer engineering core, breadth, coverage, depth, and capstone design requirements; as well as free electives.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course list:  https://courses.ece.cmu.edu/
+College of Engineering  ›  Electrical and Computer Engineering  ›  Academics  ›  B.S. in ECE  ›  Academic guide:
+Curriculum  :  https://www.ece.cmu.edu/academics/bs-in-ece/academic-guide.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>School of Computer Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Computer Science Department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undergraduate-programs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undergraduate-concentrations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.isri.cmu.edu/education/undergrad/swe-concen/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://csd.cs.cmu.edu/academic/undergraduate/bachelors-curriculum-admitted-2018
+https://csd.cs.cmu.edu/sample-undergraduate-course-sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://engineering.stanford.edu/students-and-academics  [Undergraduate Handbook]  --&gt;161  UGHB_1819_PDFwCover.pdf
+https://ughb.stanford.edu/degree-programs/major-programs/computer-science-program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">berkeley
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BS
+https://hkn.eecs.berkeley.edu/courseguides?_ga=2.78220765.810433577.1539182449-851673264.1539181257
+https://eecs.berkeley.edu/resources/undergrads/eecs/study-plans
+https://eecs.berkeley.edu/resources/undergrads/cs/degree-reqs-lowerdiv
+https://eecs.berkeley.edu/resources/undergrads/cs/degree-reqs-upperdiv
+https://hkn.eecs.berkeley.edu/courseguides</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freshman_roadmaps.pdf
+http://catalog.mit.edu/degree-charts/master-electrical-engineering-computer-science-course-6-p/
+https://www.eecs.mit.edu/curriculum2017   [Degree roadmaps,New Curriculum Checklist,Undergraduate Programs,Communication Requirement,MIT Bulletin (course catalog)]
+http://catalog.mit.edu/degree-charts/computer-science-engineering-course-6-3/
+http://catalog.mit.edu/subjects/6/
+http://web.mit.edu/education/      Teaching &amp; Learning   Course Catalog (MIT Bulletin)  能够找到catalog.mit.edu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,12 +380,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -318,18 +407,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -613,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -625,9 +726,12 @@
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="100" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
     <col min="9" max="9" width="10.25" customWidth="1"/>
     <col min="10" max="10" width="40.25" customWidth="1"/>
     <col min="11" max="11" width="72.5" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -665,62 +769,62 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -732,43 +836,43 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="G7" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
+      <c r="G8" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -780,15 +884,79 @@
       </c>
       <c r="C13" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="356.25" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1" display="https://hkn.eecs.berkeley.edu/courseguides?_ga=2.78220765.810433577.1539182449-851673264.1539181257" xr:uid="{F68C9EF1-C6A9-4B8A-84F8-94174B648451}"/>
+    <hyperlink ref="G15" r:id="rId2" display="https://csd.cs.cmu.edu/sample-undergraduate-course-sequence_x000a_" xr:uid="{0A743F72-3A09-4D84-8F31-82F7F5D8FDCF}"/>
+    <hyperlink ref="G16" r:id="rId3" xr:uid="{E410CB0B-C1B3-4128-91BE-E0BEE12AABBF}"/>
+    <hyperlink ref="G17" r:id="rId4" xr:uid="{0A478192-4CEC-4EE3-97D4-22B4D1619A48}"/>
+    <hyperlink ref="I17" r:id="rId5" display="https://courses.ece.cmu.edu/" xr:uid="{FF88E9FE-E296-4474-A55D-EDAA50EE2612}"/>
+    <hyperlink ref="G18" r:id="rId6" display="https://csd.cs.cmu.edu/academic/undergraduate/bachelors-curriculum-admitted-2017" xr:uid="{E886F753-A3FC-477A-B4EB-27B08D80282F}"/>
+    <hyperlink ref="G19" r:id="rId7" xr:uid="{2D281A30-3E4F-4797-AADB-2B70ECE37AE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -796,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD8B352-1AD8-49A3-BDC1-81BE3CAB5010}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
